--- a/notebooks/results/PLSDA_ST001047.xlsx
+++ b/notebooks/results/PLSDA_ST001047.xlsx
@@ -437,19 +437,19 @@
         <v>12.8042008738419</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.06675086027372262</v>
+        <v>-0.06842607068475764</v>
       </c>
       <c r="H2" t="n">
-        <v>1.570454162178737</v>
+        <v>1.934882030768542</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-0.09613692 -0.0455474  -0.06991865]</t>
+          <t>[-0.09953201 -0.05435356 -0.07929254]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[1.03351663 2.14623498 1.57260649]</t>
+          <t>[1.43799972 2.72123833 2.06745354]</t>
         </is>
       </c>
     </row>
@@ -477,19 +477,19 @@
         <v>9.372663557352331</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.004815509956431573</v>
+        <v>-0.004672346392015133</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8487292877406246</v>
+        <v>0.4245393101123416</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-0.03995299  0.01714689 -0.00658952]</t>
+          <t>[-0.03789697  0.01451262 -0.00644234]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0.43701822 1.08643342 0.8600212 ]</t>
+          <t>[0.1361196  0.62350751 0.34895506]</t>
         </is>
       </c>
     </row>
@@ -517,19 +517,19 @@
         <v>5.04915562556207</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04523695386902182</v>
+        <v>0.04544949438479028</v>
       </c>
       <c r="H4" t="n">
-        <v>1.180695196173784</v>
+        <v>1.357921935310967</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.0244121  0.06623571 0.05209143]</t>
+          <t>[0.02509215 0.06837251 0.04949335]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0.74089531 1.61622034 1.32010282]</t>
+          <t>[0.73707629 2.0347375  1.43711635]</t>
         </is>
       </c>
     </row>
@@ -557,19 +557,19 @@
         <v>5.13234006385694</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05330589989918088</v>
+        <v>-0.05336036051358085</v>
       </c>
       <c r="H5" t="n">
-        <v>1.456856027453303</v>
+        <v>1.531687005513794</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.07303575 -0.04008815 -0.05699528]</t>
+          <t>[-0.0732405  -0.04114238 -0.05807652]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[1.11896841 1.77730995 1.48592784]</t>
+          <t>[1.25753892 2.09955889 1.69403541]</t>
         </is>
       </c>
     </row>
@@ -597,19 +597,19 @@
         <v>15.4761649136304</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.274813061522982e-05</v>
+        <v>1.896490594235131e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3017479622805516</v>
+        <v>0.1477537518097171</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[-0.03243148  0.03681806 -0.00111662]</t>
+          <t>[-0.03106433  0.04871684  0.00063485]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0.13944298 0.43204202 0.16173016]</t>
+          <t>[0.07922472 0.22167408 0.08171539]</t>
         </is>
       </c>
     </row>
@@ -637,19 +637,19 @@
         <v>8.905710853410421</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03682644868783085</v>
+        <v>-0.03695016751205463</v>
       </c>
       <c r="H7" t="n">
-        <v>0.994463410371267</v>
+        <v>1.058860228878581</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.06483089 -0.01289033 -0.04024806]</t>
+          <t>[-0.0777833  -0.01488637 -0.04124372]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[0.34916763 1.48792678 0.98476325]</t>
+          <t>[0.47902411 2.02303959 1.18771833]</t>
         </is>
       </c>
     </row>
@@ -677,19 +677,19 @@
         <v>4.20083681066561</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02034019213870167</v>
+        <v>-0.02026799545925846</v>
       </c>
       <c r="H8" t="n">
-        <v>0.87876394727233</v>
+        <v>0.6535866303005805</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[-0.04526311  0.00068003 -0.02171873]</t>
+          <t>[-0.03826819 -0.00142812 -0.02241484]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[0.30420463 1.20761988 0.84341036]</t>
+          <t>[0.27199748 1.11862643 0.66582559]</t>
         </is>
       </c>
     </row>
@@ -717,19 +717,19 @@
         <v>18.1490341883149</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01503959269964151</v>
+        <v>0.01526336323117483</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8512862855539182</v>
+        <v>0.6104346475921597</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[-0.0173665   0.0364721   0.01605454]</t>
+          <t>[-0.00296479  0.04386824  0.019278  ]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[0.60095123 1.12530921 0.91069602]</t>
+          <t>[0.3518238  1.28911037 0.69626524]</t>
         </is>
       </c>
     </row>
@@ -757,19 +757,19 @@
         <v>16.4201497510561</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007651281940650334</v>
+        <v>0.007819165631008132</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8988150677015526</v>
+        <v>0.5060858780194127</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[-0.01316886  0.02694227  0.00845062]</t>
+          <t>[-0.01019973  0.02930602  0.0099022 ]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[0.66574618 1.30721555 0.93531625]</t>
+          <t>[0.22801354 0.80184896 0.49181692]</t>
         </is>
       </c>
     </row>
@@ -797,19 +797,19 @@
         <v>10.475665966914</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.005553999495561447</v>
+        <v>-0.005433943359244152</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6383838491912189</v>
+        <v>0.3316279065220029</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[-0.03085837  0.0277973  -0.0035085 ]</t>
+          <t>[-0.03166894  0.02260298 -0.00482374]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[0.15932025 0.96451854 0.6115404 ]</t>
+          <t>[0.10000005 0.43675763 0.19335911]</t>
         </is>
       </c>
     </row>
@@ -837,19 +837,19 @@
         <v>4.16327952324079</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03004676449216516</v>
+        <v>0.03028743642698663</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8638715274054647</v>
+        <v>0.9287461677619477</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[-0.00060535  0.06820761  0.0292542 ]</t>
+          <t>[-0.00023641  0.05201888  0.03150849]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[0.4095162  1.66912564 0.92273467]</t>
+          <t>[0.29401023 1.50688632 0.99703684]</t>
         </is>
       </c>
     </row>
@@ -877,19 +877,19 @@
         <v>9.49971351958197</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.001158300571735112</v>
+        <v>-0.0009809223426041746</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8393767918337006</v>
+        <v>0.4130692250072716</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[-0.02480234  0.01566456 -0.00211397]</t>
+          <t>[-0.02277362  0.01768534 -0.00184939]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[0.25231829 1.0302435  0.81087421]</t>
+          <t>[0.07782252 0.58990074 0.33389622]</t>
         </is>
       </c>
     </row>
@@ -917,19 +917,19 @@
         <v>7.35629680015826</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001099640488445456</v>
+        <v>0.001232286104454985</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5428450952449194</v>
+        <v>0.2708638805202409</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[-0.02337856  0.03039546  0.00090304]</t>
+          <t>[-0.01959704  0.02511516  0.00169862]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[0.1411777  0.77965049 0.44391914]</t>
+          <t>[0.04584769 0.35029719 0.08403497]</t>
         </is>
       </c>
     </row>
@@ -957,19 +957,19 @@
         <v>10.5270026105767</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01104163385794092</v>
+        <v>-0.01092551847234981</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7608254604172094</v>
+        <v>0.4479967993143504</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[-0.03064313  0.0040798  -0.01401255]</t>
+          <t>[-0.03111111  0.00995528 -0.01207278]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[0.18615564 1.01119646 0.68530805]</t>
+          <t>[0.17795707 0.84082841 0.43498   ]</t>
         </is>
       </c>
     </row>
@@ -997,19 +997,19 @@
         <v>6.2683318247799</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.06778090356678605</v>
+        <v>-0.06800439577645248</v>
       </c>
       <c r="H16" t="n">
-        <v>1.561029175737962</v>
+        <v>1.921727867377717</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[-0.09227292 -0.04926879 -0.07356124]</t>
+          <t>[-0.09200926 -0.05067397 -0.0727171 ]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[1.0743366  2.12452792 1.56291081]</t>
+          <t>[1.53668403 2.56083412 2.15347624]</t>
         </is>
       </c>
     </row>
@@ -1037,19 +1037,19 @@
         <v>3.23499494857128</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.03894365746181708</v>
+        <v>-0.03891128490016038</v>
       </c>
       <c r="H17" t="n">
-        <v>1.240880025668562</v>
+        <v>1.147746004640422</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[-0.05408332 -0.02922713 -0.04180364]</t>
+          <t>[-0.05446438 -0.02863119 -0.04091023]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[0.93523842 1.51192901 1.25466492]</t>
+          <t>[0.86454869 1.4687024  1.18459497]</t>
         </is>
       </c>
     </row>
@@ -1077,19 +1077,19 @@
         <v>18.8260788445098</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0001238418106627427</v>
+        <v>5.028747118369578e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4623687524578112</v>
+        <v>0.2279244888188438</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[-0.032307    0.02403384 -0.00582894]</t>
+          <t>[-0.0313731   0.02724259  0.00214194]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[0.11689239 0.76062633 0.39328554]</t>
+          <t>[0.0959805  0.28602147 0.10756209]</t>
         </is>
       </c>
     </row>
@@ -1117,19 +1117,19 @@
         <v>14.3585518548811</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02093451966558317</v>
+        <v>-0.02027463677926823</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7075377623325406</v>
+        <v>0.6061661707620559</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[-0.04388802  0.00520169 -0.02113886]</t>
+          <t>[-0.04145125  0.0012412  -0.02382101]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[0.20308182 0.99120612 0.5653858 ]</t>
+          <t>[0.2629615  1.28445884 0.66410033]</t>
         </is>
       </c>
     </row>
@@ -1157,19 +1157,19 @@
         <v>10.6115825535449</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002435488845118319</v>
+        <v>-0.002246726547843648</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9422850340902573</v>
+        <v>0.4633227872108271</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[-0.01414308  0.01254783 -0.00127401]</t>
+          <t>[-0.01885509  0.01693138 -0.00308285]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[0.31748546 1.11655785 0.94645809]</t>
+          <t>[0.15816872 0.63514258 0.36819552]</t>
         </is>
       </c>
     </row>
@@ -1197,19 +1197,19 @@
         <v>2.43157137126769</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001329332453818879</v>
+        <v>0.001460712866836552</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6760701497818596</v>
+        <v>0.3413719355531064</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[-0.02726411  0.02312266 -0.00080769]</t>
+          <t>[-0.02756724  0.0330916   0.00350176]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[0.28435066 0.95369767 0.68138138]</t>
+          <t>[0.14281903 0.53041529 0.26316657]</t>
         </is>
       </c>
     </row>
@@ -1237,19 +1237,19 @@
         <v>16.1921649824113</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.007012279701026585</v>
+        <v>-0.007024435426942541</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6405417350102758</v>
+        <v>0.3532979634536919</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[-0.04745379  0.01557624 -0.01147446]</t>
+          <t>[-0.04089514  0.01608614 -0.00891469]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[0.14987188 1.09931744 0.64019562]</t>
+          <t>[0.21449059 0.52665445 0.25064901]</t>
         </is>
       </c>
     </row>
@@ -1277,19 +1277,19 @@
         <v>8.71508486022139</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.02581198236829676</v>
+        <v>-0.02573125910871042</v>
       </c>
       <c r="H23" t="n">
-        <v>1.028954750889946</v>
+        <v>0.8064690964352549</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[-0.04309412 -0.01069503 -0.02874839]</t>
+          <t>[-0.04858808 -0.01174435 -0.02765343]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[0.63657627 1.3402937  1.01515925]</t>
+          <t>[0.51751147 1.35161289 0.84142539]</t>
         </is>
       </c>
     </row>
@@ -1317,19 +1317,19 @@
         <v>6.07329505645181</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01583775981572057</v>
+        <v>0.01609705531494578</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9496361875268742</v>
+        <v>0.6635415698031905</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[-0.00521777  0.03244703  0.01644684]</t>
+          <t>[-0.00396623  0.03368096  0.01647822]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[0.78499104 1.17164154 0.99810613]</t>
+          <t>[0.3165526  1.11485748 0.67629294]</t>
         </is>
       </c>
     </row>
@@ -1357,19 +1357,19 @@
         <v>13.2804518023977</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.02635700762953394</v>
+        <v>-0.0268342507040861</v>
       </c>
       <c r="H25" t="n">
-        <v>1.037212742269386</v>
+        <v>0.8375807578728385</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[-0.04401362 -0.0095573  -0.02693511]</t>
+          <t>[-0.04881691 -0.00529721 -0.02529093]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[0.5734748  1.34360122 1.0514857 ]</t>
+          <t>[0.45561449 1.41674286 0.82916706]</t>
         </is>
       </c>
     </row>
@@ -1397,19 +1397,19 @@
         <v>14.8833988150265</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007116283810397735</v>
+        <v>0.007278469561244341</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5641595039208387</v>
+        <v>0.3544015026969021</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[-0.02221646  0.03148251  0.00696763]</t>
+          <t>[-0.02247269  0.03918588  0.0070843 ]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[0.15436259 0.86216013 0.53843249]</t>
+          <t>[0.09003811 0.69145583 0.30029806]</t>
         </is>
       </c>
     </row>
@@ -1437,19 +1437,19 @@
         <v>5.65626339296861</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01893555716280033</v>
+        <v>-0.01886624468490083</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8243437480170173</v>
+        <v>0.610139951138609</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[-0.03720388 -0.00597412 -0.02295449]</t>
+          <t>[-0.04493488 -0.00219091 -0.02123192]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[0.27409491 1.0708722  0.79143778]</t>
+          <t>[0.37142474 1.40689224 0.68572396]</t>
         </is>
       </c>
     </row>
@@ -1477,19 +1477,19 @@
         <v>4.06985188179461</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07261410299616362</v>
+        <v>0.07312363521391191</v>
       </c>
       <c r="H28" t="n">
-        <v>1.776791481867315</v>
+        <v>2.14780702765486</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.06300869 0.09123229 0.07855951]</t>
+          <t>[0.05942569 0.09120203 0.07884629]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[1.38348795 2.43726931 1.96248937]</t>
+          <t>[1.84378433 2.48666581 2.30450856]</t>
         </is>
       </c>
     </row>
@@ -1517,19 +1517,19 @@
         <v>10.5427542371552</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01831937756359403</v>
+        <v>-0.01822128484210945</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9095207344978942</v>
+        <v>0.6226335590832881</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[-0.04541099 -0.00144081 -0.02248465]</t>
+          <t>[-0.03787658  0.00519111 -0.02086638]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[0.4014322  1.1764377  0.89165324]</t>
+          <t>[0.3118107  1.13910359 0.67621643]</t>
         </is>
       </c>
     </row>
@@ -1557,19 +1557,19 @@
         <v>15.7041429053511</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03318666601966175</v>
+        <v>0.03333111005884963</v>
       </c>
       <c r="H30" t="n">
-        <v>1.062839515158135</v>
+        <v>1.054384871675127</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.01962596 0.06202668 0.03990199]</t>
+          <t>[0.01456255 0.05982495 0.03474039]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[0.88434083 1.56843342 1.21330565]</t>
+          <t>[0.62703755 1.85067175 1.12689273]</t>
         </is>
       </c>
     </row>
@@ -1597,19 +1597,19 @@
         <v>17.2939233224719</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.005562540029332526</v>
+        <v>-0.005429259819176659</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6621377612974093</v>
+        <v>0.342021404712</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[-0.02566422  0.01726066 -0.00666521]</t>
+          <t>[-0.02242316  0.01194278 -0.00437339]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[0.04695619 0.86416099 0.57589072]</t>
+          <t>[0.10429723 0.5038773  0.2683895 ]</t>
         </is>
       </c>
     </row>
@@ -1637,19 +1637,19 @@
         <v>6.64822149110939</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.02154136694381201</v>
+        <v>-0.02125263273857022</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8979542497971325</v>
+        <v>0.6764407791677088</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[-0.04685217  0.0012865  -0.02037311]</t>
+          <t>[-0.04441704 -0.00515525 -0.02512545]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>[0.44921942 1.35401361 0.87170196]</t>
+          <t>[0.36033822 1.17482811 0.74458945]</t>
         </is>
       </c>
     </row>
@@ -1677,19 +1677,19 @@
         <v>9.364352421008711</v>
       </c>
       <c r="G33" t="n">
-        <v>0.009189756331008461</v>
+        <v>0.00939653908371476</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8961303481557373</v>
+        <v>0.528812666734769</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[-0.01037814  0.02159928  0.01085678]</t>
+          <t>[-0.00679513  0.03018817  0.01063876]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[0.54676143 1.06104948 0.92843674]</t>
+          <t>[0.32050815 1.17842064 0.56699908]</t>
         </is>
       </c>
     </row>
@@ -1717,19 +1717,19 @@
         <v>8.15506388476593</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01410602702801305</v>
+        <v>-0.01389320440184611</v>
       </c>
       <c r="H34" t="n">
-        <v>0.427101202988591</v>
+        <v>0.4055984928947608</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[-0.04892722  0.01533036 -0.0145518 ]</t>
+          <t>[-0.03369109  0.02268821 -0.01199471]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[0.05213661 1.00091838 0.30889974]</t>
+          <t>[0.05655217 0.95443978 0.35333869]</t>
         </is>
       </c>
     </row>
@@ -1757,19 +1757,19 @@
         <v>15.9320417767385</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01425183391831008</v>
+        <v>-0.01415834636501957</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7780721045022555</v>
+        <v>0.5066907764678222</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[-0.03098003  0.00856251 -0.01040153]</t>
+          <t>[-0.0356954   0.00809971 -0.01708894]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[0.24471997 1.05096136 0.7345552 ]</t>
+          <t>[0.3120658  1.03780743 0.54114359]</t>
         </is>
       </c>
     </row>
@@ -1797,19 +1797,19 @@
         <v>11.9378472875586</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.009252363772252165</v>
+        <v>-0.009166291113345016</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6061910602669887</v>
+        <v>0.3639573014906008</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[-0.02650339  0.02131158 -0.00994027]</t>
+          <t>[-0.04095628  0.01353879 -0.00961274]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[0.10393259 0.88862838 0.54265432]</t>
+          <t>[0.05377391 0.57188865 0.30912185]</t>
         </is>
       </c>
     </row>
@@ -1837,19 +1837,19 @@
         <v>18.6256353495308</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04564840825440113</v>
+        <v>0.04514170177440986</v>
       </c>
       <c r="H37" t="n">
-        <v>1.061159304150219</v>
+        <v>1.307614975678271</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[0.01827777 0.07469495 0.04556457]</t>
+          <t>[0.02481531 0.08973366 0.05068339]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[0.53510489 1.70713004 1.07937858]</t>
+          <t>[0.68886195 2.42610436 1.40602234]</t>
         </is>
       </c>
     </row>
@@ -1877,19 +1877,19 @@
         <v>2.97573692676797</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01360958500912076</v>
+        <v>0.01373234257961751</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7445141330943736</v>
+        <v>0.5395173240076795</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[-0.02280031  0.03186931  0.01363996]</t>
+          <t>[-0.01211623  0.03941273  0.0156209 ]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[0.43525742 1.11228323 0.80842919]</t>
+          <t>[0.26334532 1.44534379 0.63418028]</t>
         </is>
       </c>
     </row>
@@ -1917,19 +1917,19 @@
         <v>13.0219623560134</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.008498976359430225</v>
+        <v>-0.008380850687161608</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7643622935516283</v>
+        <v>0.4160462127327316</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[-0.03202122  0.01431945 -0.00884051]</t>
+          <t>[-0.0273142   0.01294044 -0.00851341]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[0.20431641 1.02300883 0.73691194]</t>
+          <t>[0.11304352 0.60587829 0.31139158]</t>
         </is>
       </c>
     </row>
@@ -1957,19 +1957,19 @@
         <v>12.5968651960161</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05407725500437931</v>
+        <v>0.05425255046682349</v>
       </c>
       <c r="H40" t="n">
-        <v>1.384611958260253</v>
+        <v>1.612567924025692</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[0.03809111 0.07812455 0.05880681]</t>
+          <t>[0.03609912 0.07692177 0.05997897]</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[0.94284686 1.98211167 1.4598498 ]</t>
+          <t>[1.05282845 2.18386749 1.70680659]</t>
         </is>
       </c>
     </row>
@@ -1997,19 +1997,19 @@
         <v>13.9818037974324</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00228914066548453</v>
+        <v>0.002474536379052671</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8048348260598096</v>
+        <v>0.4104177240958793</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[-0.01706281  0.02629407  0.00150165]</t>
+          <t>[-0.01860081  0.02781542  0.00277942]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[0.10819429 0.95621533 0.7494659 ]</t>
+          <t>[0.13674528 0.54588905 0.30505477]</t>
         </is>
       </c>
     </row>
@@ -2037,19 +2037,19 @@
         <v>12.0011423977921</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01755068845772656</v>
+        <v>0.01750543986113235</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7856291323917954</v>
+        <v>0.6259462858916696</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[-0.01866031  0.04480659  0.0167501 ]</t>
+          <t>[-0.03148085  0.0385374   0.01549472]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[0.5482142  1.49205504 0.82455795]</t>
+          <t>[0.2069424  1.1870107  0.60393367]</t>
         </is>
       </c>
     </row>
@@ -2077,19 +2077,19 @@
         <v>19.1464856672245</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.01208751416095253</v>
+        <v>-0.01196538887417966</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7897452976267375</v>
+        <v>0.474304128603389</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[-0.03072313  0.0112264  -0.01099926]</t>
+          <t>[-0.02850802  0.0091125  -0.01247997]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[0.1235766  1.05637712 0.7356817 ]</t>
+          <t>[0.10081221 0.7682752  0.43815783]</t>
         </is>
       </c>
     </row>
@@ -2117,19 +2117,19 @@
         <v>3.81350478775125</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03074131844407361</v>
+        <v>0.03081263608823134</v>
       </c>
       <c r="H44" t="n">
-        <v>0.924364511171382</v>
+        <v>0.956293870272391</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[0.0096145  0.06170344 0.03287752]</t>
+          <t>[0.0042605  0.05694369 0.03322912]</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>[0.67522098 1.574784   0.99567445]</t>
+          <t>[0.41903076 1.69474023 1.00407723]</t>
         </is>
       </c>
     </row>
@@ -2157,19 +2157,19 @@
         <v>4.34862912988896</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.0095829833446216</v>
+        <v>-0.009454599320558246</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7013531075792658</v>
+        <v>0.4037354885350924</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[-0.03657461  0.0161253  -0.01130254]</t>
+          <t>[-0.04046439  0.0078697  -0.01412489]</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[0.16811193 0.89723327 0.59408551]</t>
+          <t>[0.18883997 0.79870328 0.37580293]</t>
         </is>
       </c>
     </row>
@@ -2197,19 +2197,19 @@
         <v>5.35937655592283</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03949318432302695</v>
+        <v>0.03896537514432588</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9676222083418564</v>
+        <v>1.144527078821072</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>[0.00948918 0.07484699 0.04113276]</t>
+          <t>[0.00685993 0.06372699 0.04195343]</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[0.45967584 1.65990873 1.05302175]</t>
+          <t>[0.27042208 1.87104357 1.17211811]</t>
         </is>
       </c>
     </row>
@@ -2237,19 +2237,19 @@
         <v>15.5364012150061</v>
       </c>
       <c r="G47" t="n">
-        <v>0.07201059168862081</v>
+        <v>0.07204388600478714</v>
       </c>
       <c r="H47" t="n">
-        <v>1.673659934668616</v>
+        <v>2.08693930769535</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[0.05029257 0.09572023 0.07747434]</t>
+          <t>[0.05511097 0.1136784  0.09221088]</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[1.2281155  2.62097983 1.83200557]</t>
+          <t>[1.71106959 2.94432864 2.61717419]</t>
         </is>
       </c>
     </row>
@@ -2277,19 +2277,19 @@
         <v>5.00522096920462</v>
       </c>
       <c r="G48" t="n">
-        <v>0.014796028715646</v>
+        <v>0.01476360743385351</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6311057910018384</v>
+        <v>0.5169474254716266</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[-0.01552852  0.04139175  0.01690266]</t>
+          <t>[-0.00642246  0.05279176  0.02083949]</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[0.31706323 1.03040434 0.63470833]</t>
+          <t>[0.25399363 1.58037767 0.6216004 ]</t>
         </is>
       </c>
     </row>
@@ -2317,19 +2317,19 @@
         <v>4.73533373690427</v>
       </c>
       <c r="G49" t="n">
-        <v>0.09768678282657976</v>
+        <v>0.09782010415459376</v>
       </c>
       <c r="H49" t="n">
-        <v>2.208260224048085</v>
+        <v>2.810068452623526</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>[0.0764047 0.1273574 0.1009677]</t>
+          <t>[0.07781688 0.12138759 0.10277475]</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[1.72258367 3.05747427 2.3786555 ]</t>
+          <t>[2.36804233 3.24003725 3.03375246]</t>
         </is>
       </c>
     </row>
@@ -2357,19 +2357,19 @@
         <v>7.15116605857213</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05017964509315873</v>
+        <v>0.05036115458097098</v>
       </c>
       <c r="H50" t="n">
-        <v>1.264326571632907</v>
+        <v>1.490470285897207</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[0.03514668 0.07799234 0.0572972 ]</t>
+          <t>[0.03529434 0.08249394 0.05458426]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[0.86453329 2.00088843 1.41019069]</t>
+          <t>[0.98179029 2.34966904 1.56491821]</t>
         </is>
       </c>
     </row>
@@ -2397,19 +2397,19 @@
         <v>6.63548612638398</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03135852324873557</v>
+        <v>0.03158156077442099</v>
       </c>
       <c r="H51" t="n">
-        <v>0.7755165166360889</v>
+        <v>0.9302013067449371</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[0.01311895 0.06256328 0.03475882]</t>
+          <t>[0.00917442 0.06737338 0.03623072]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[0.4179718  1.36136023 0.88943853]</t>
+          <t>[0.33828905 1.95046263 1.04419763]</t>
         </is>
       </c>
     </row>
@@ -2437,19 +2437,19 @@
         <v>16.5619208190305</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02633193022150899</v>
+        <v>0.02644306716671703</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9460031504013484</v>
+        <v>0.8686805635406238</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[-0.00156479  0.05093968  0.02764336]</t>
+          <t>[0.00076442 0.05051593 0.02833544]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>[0.67767739 1.44550501 1.07745023]</t>
+          <t>[0.33478486 1.46554936 0.83401266]</t>
         </is>
       </c>
     </row>
@@ -2477,19 +2477,19 @@
         <v>8.351801436124299</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0112454534917653</v>
+        <v>-0.01109925601362424</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9268366712771183</v>
+        <v>0.5158233351384673</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[-0.02556612  0.00970221 -0.0108783 ]</t>
+          <t>[-0.03005708  0.00932814 -0.01058498]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[0.37285154 1.16070099 0.93468878]</t>
+          <t>[0.26338256 0.73686585 0.48181102]</t>
         </is>
       </c>
     </row>

--- a/notebooks/results/PLSDA_ST001047.xlsx
+++ b/notebooks/results/PLSDA_ST001047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -412,6 +412,16 @@
           <t>VIP-95CI</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Coef_Test</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>VIP_Test</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -444,13 +454,19 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-0.09953201 -0.05435356 -0.07929254]</t>
+          <t>[-0.1007629  -0.04512894 -0.07477275]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[1.43799972 2.72123833 2.06745354]</t>
-        </is>
+          <t>[1.35980648 2.72339097 2.09163488]</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.06998639338294839</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.954274798075686</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +500,19 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-0.03789697  0.01451262 -0.00644234]</t>
+          <t>[-0.04694931  0.01917425 -0.00468743]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0.1361196  0.62350751 0.34895506]</t>
-        </is>
+          <t>[0.11699492 0.62005291 0.30754726]</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.02563189554066063</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8984445610919483</v>
       </c>
     </row>
     <row r="4">
@@ -524,13 +546,19 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.02509215 0.06837251 0.04949335]</t>
+          <t>[0.02179637 0.06491312 0.04797865]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0.73707629 2.0347375  1.43711635]</t>
-        </is>
+          <t>[0.6302717  1.94833668 1.36355491]</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.02327437662045344</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7602436885117888</v>
       </c>
     </row>
     <row r="5">
@@ -564,13 +592,19 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.0732405  -0.04114238 -0.05807652]</t>
+          <t>[-0.07107525 -0.04031215 -0.05798911]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[1.25753892 2.09955889 1.69403541]</t>
-        </is>
+          <t>[1.12898745 1.98087169 1.62055228]</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.06035640889745132</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.716371401082523</v>
       </c>
     </row>
     <row r="6">
@@ -604,13 +638,19 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[-0.03106433  0.04871684  0.00063485]</t>
+          <t>[-0.0253416   0.04117707  0.00261577]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0.07922472 0.22167408 0.08171539]</t>
-        </is>
+          <t>[0.05577179 0.22376844 0.05633274]</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.01671235831834629</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4859594348977094</v>
       </c>
     </row>
     <row r="7">
@@ -644,13 +684,19 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.0777833  -0.01488637 -0.04124372]</t>
+          <t>[-0.07931125 -0.0125513  -0.04252455]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[0.47902411 2.02303959 1.18771833]</t>
-        </is>
+          <t>[0.41912617 2.12186608 1.26038971]</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.04263943410674419</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.207535720748384</v>
       </c>
     </row>
     <row r="8">
@@ -684,13 +730,19 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[-0.03826819 -0.00142812 -0.02241484]</t>
+          <t>[-0.03652473 -0.001601   -0.01933979]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[0.27199748 1.11862643 0.66582559]</t>
-        </is>
+          <t>[0.1815231  1.09443784 0.63310178]</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.02055761007525408</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.6801933451040987</v>
       </c>
     </row>
     <row r="9">
@@ -724,13 +776,19 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[-0.00296479  0.04386824  0.019278  ]</t>
+          <t>[-0.01737787  0.03395016  0.01492792]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[0.3518238  1.28911037 0.69626524]</t>
-        </is>
+          <t>[0.27397484 1.17836577 0.61117948]</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.01449337243158384</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5642896212759561</v>
       </c>
     </row>
     <row r="10">
@@ -764,13 +822,19 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[-0.01019973  0.02930602  0.0099022 ]</t>
+          <t>[-0.00630157  0.0280316   0.0089574 ]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[0.22801354 0.80184896 0.49181692]</t>
-        </is>
+          <t>[0.20854145 0.92656847 0.50538687]</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.01262689918707682</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.6160078904820261</v>
       </c>
     </row>
     <row r="11">
@@ -804,13 +868,19 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[-0.03166894  0.02260298 -0.00482374]</t>
+          <t>[-0.03374221  0.02510135 -0.00566471]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[0.10000005 0.43675763 0.19335911]</t>
-        </is>
+          <t>[0.07864001 0.52502081 0.23869808]</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.005132444511115117</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3821630548723957</v>
       </c>
     </row>
     <row r="12">
@@ -844,13 +914,19 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[-0.00023641  0.05201888  0.03150849]</t>
+          <t>[-0.01718424  0.05133559  0.02946482]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[0.29401023 1.50688632 0.99703684]</t>
-        </is>
+          <t>[0.22586699 1.35736275 0.85582104]</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0.02079697018988702</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.677901137445071</v>
       </c>
     </row>
     <row r="13">
@@ -884,13 +960,19 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[-0.02277362  0.01768534 -0.00184939]</t>
+          <t>[-0.01420785  0.01878986  0.0011803 ]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[0.07782252 0.58990074 0.33389622]</t>
-        </is>
+          <t>[0.15679531 0.59226728 0.36427733]</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.01095419432883107</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.5789520736713877</v>
       </c>
     </row>
     <row r="14">
@@ -924,13 +1006,19 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[-0.01959704  0.02511516  0.00169862]</t>
+          <t>[-0.0267616   0.01759392 -0.005316  ]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[0.04584769 0.35029719 0.08403497]</t>
-        </is>
+          <t>[0.05838522 0.34358546 0.06260275]</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.001543440509054234</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3316123335420682</v>
       </c>
     </row>
     <row r="15">
@@ -964,13 +1052,19 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[-0.03111111  0.00995528 -0.01207278]</t>
+          <t>[-0.0300992  0.0116677 -0.0102094]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[0.17795707 0.84082841 0.43498   ]</t>
-        </is>
+          <t>[0.08776678 0.79318285 0.40930335]</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.01527241278230754</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.582964702296681</v>
       </c>
     </row>
     <row r="16">
@@ -1004,13 +1098,19 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[-0.09200926 -0.05067397 -0.0727171 ]</t>
+          <t>[-0.09329397 -0.04530015 -0.07133276]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[1.53668403 2.56083412 2.15347624]</t>
-        </is>
+          <t>[1.39750305 2.72755758 2.10592718]</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.06762300956980039</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.888522438813666</v>
       </c>
     </row>
     <row r="17">
@@ -1044,13 +1144,19 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[-0.05446438 -0.02863119 -0.04091023]</t>
+          <t>[-0.05064637 -0.03102167 -0.04376295]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[0.86454869 1.4687024  1.18459497]</t>
-        </is>
+          <t>[0.91731671 1.42420992 1.2060261 ]</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.03473016232920018</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.056571374988954</v>
       </c>
     </row>
     <row r="18">
@@ -1084,13 +1190,19 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[-0.0313731   0.02724259  0.00214194]</t>
+          <t>[-0.0332044   0.02703819 -0.00069493]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[0.0959805  0.28602147 0.10756209]</t>
-        </is>
+          <t>[0.13847268 0.28458354 0.13957726]</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0.02521006414153381</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.7942035389486203</v>
       </c>
     </row>
     <row r="19">
@@ -1124,13 +1236,19 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[-0.04145125  0.0012412  -0.02382101]</t>
+          <t>[-0.04622381 -0.00428554 -0.02483723]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[0.2629615  1.28445884 0.66410033]</t>
-        </is>
+          <t>[0.27887496 1.29413545 0.67387404]</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.02302348207357939</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.6786725491352518</v>
       </c>
     </row>
     <row r="20">
@@ -1164,13 +1282,19 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[-0.01885509  0.01693138 -0.00308285]</t>
+          <t>[-0.01613416  0.01014484 -0.00162836]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[0.15816872 0.63514258 0.36819552]</t>
-        </is>
+          <t>[0.1627331  0.62254494 0.43245115]</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.002349266397172134</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.5267533069281976</v>
       </c>
     </row>
     <row r="21">
@@ -1204,13 +1328,19 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[-0.02756724  0.0330916   0.00350176]</t>
+          <t>[-0.035987    0.02510434 -0.00071172]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[0.14281903 0.53041529 0.26316657]</t>
-        </is>
+          <t>[0.08139516 0.52864701 0.22575644]</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0202346753620685</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.6586538111515085</v>
       </c>
     </row>
     <row r="22">
@@ -1244,13 +1374,19 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[-0.04089514  0.01608614 -0.00891469]</t>
+          <t>[-0.02774111  0.02967525 -0.00566608]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[0.21449059 0.52665445 0.25064901]</t>
-        </is>
+          <t>[0.0235926  0.62156374 0.30162123]</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.007494858620690182</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3977243013968144</v>
       </c>
     </row>
     <row r="23">
@@ -1284,13 +1420,19 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[-0.04858808 -0.01174435 -0.02765343]</t>
+          <t>[-0.04519474 -0.01390111 -0.02824776]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[0.51751147 1.35161289 0.84142539]</t>
-        </is>
+          <t>[0.54614346 1.23286419 0.84080388]</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.0170548403506805</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.664950450675809</v>
       </c>
     </row>
     <row r="24">
@@ -1324,13 +1466,19 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[-0.00396623  0.03368096  0.01647822]</t>
+          <t>[-0.00050222  0.03878739  0.02063863]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[0.3165526  1.11485748 0.67629294]</t>
-        </is>
+          <t>[0.35757599 1.20549806 0.74883568]</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.01736039522082607</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.7233400416045787</v>
       </c>
     </row>
     <row r="25">
@@ -1364,13 +1512,19 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[-0.04881691 -0.00529721 -0.02529093]</t>
+          <t>[-0.05784648 -0.0123828  -0.03122982]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[0.45561449 1.41674286 0.82916706]</t>
-        </is>
+          <t>[0.53898832 1.63590089 0.95430879]</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.03261981181292788</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9814687983327414</v>
       </c>
     </row>
     <row r="26">
@@ -1404,13 +1558,19 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[-0.02247269  0.03918588  0.0070843 ]</t>
+          <t>[-0.01540889  0.04321879  0.00736465]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[0.09003811 0.69145583 0.30029806]</t>
-        </is>
+          <t>[0.05780292 0.5934281  0.27955383]</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0.004404547690925986</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.361551570170175</v>
       </c>
     </row>
     <row r="27">
@@ -1444,13 +1604,19 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[-0.04493488 -0.00219091 -0.02123192]</t>
+          <t>[-0.04169891 -0.0050224  -0.02409862]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[0.37142474 1.40689224 0.68572396]</t>
-        </is>
+          <t>[0.35129724 1.29457786 0.76425351]</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.02744395360408734</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.820622702772395</v>
       </c>
     </row>
     <row r="28">
@@ -1484,13 +1650,19 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.05942569 0.09120203 0.07884629]</t>
+          <t>[0.06156326 0.09779605 0.08039953]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[1.84378433 2.48666581 2.30450856]</t>
-        </is>
+          <t>[1.82260039 2.64813738 2.3072696 ]</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0.06935041468073087</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.025612249610985</v>
       </c>
     </row>
     <row r="29">
@@ -1524,13 +1696,19 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[-0.03787658  0.00519111 -0.02086638]</t>
+          <t>[-0.051475    0.00075582 -0.01915073]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[0.3118107  1.13910359 0.67621643]</t>
-        </is>
+          <t>[0.22183313 1.22064741 0.63167042]</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.01804290778053517</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.6244037625518721</v>
       </c>
     </row>
     <row r="30">
@@ -1564,13 +1742,19 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.01456255 0.05982495 0.03474039]</t>
+          <t>[0.01860397 0.06487932 0.03581841]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[0.62703755 1.85067175 1.12689273]</t>
-        </is>
+          <t>[0.67446195 1.5104682  1.18135252]</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0.02755623441823547</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.9262829919343325</v>
       </c>
     </row>
     <row r="31">
@@ -1604,13 +1788,19 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[-0.02242316  0.01194278 -0.00437339]</t>
+          <t>[-0.02804289  0.01828391 -0.00659311]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[0.10429723 0.5038773  0.2683895 ]</t>
-        </is>
+          <t>[0.04741339 0.54444848 0.28925011]</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.008803736449432723</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.4288266963607174</v>
       </c>
     </row>
     <row r="32">
@@ -1644,13 +1834,19 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[-0.04441704 -0.00515525 -0.02512545]</t>
+          <t>[-0.03784661  0.00295076 -0.02003576]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>[0.36033822 1.17482811 0.74458945]</t>
-        </is>
+          <t>[0.195319   1.09051046 0.65884001]</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.01939510909328935</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.6530236714976903</v>
       </c>
     </row>
     <row r="33">
@@ -1684,13 +1880,19 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[-0.00679513  0.03018817  0.01063876]</t>
+          <t>[-0.00600006  0.02690671  0.01022314]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[0.32050815 1.17842064 0.56699908]</t>
-        </is>
+          <t>[0.26112234 1.07982612 0.55504504]</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0.002544975261400312</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.4604578166404271</v>
       </c>
     </row>
     <row r="34">
@@ -1724,13 +1926,19 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[-0.03369109  0.02268821 -0.01199471]</t>
+          <t>[-0.04402136  0.01386575 -0.0184523 ]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[0.05655217 0.95443978 0.35333869]</t>
-        </is>
+          <t>[0.07997376 1.10408141 0.39856426]</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0170061597529985</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.5024875591707831</v>
       </c>
     </row>
     <row r="35">
@@ -1764,13 +1972,19 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[-0.0356954   0.00809971 -0.01708894]</t>
+          <t>[-0.03121757  0.00476695 -0.01581649]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[0.3120658  1.03780743 0.54114359]</t>
-        </is>
+          <t>[0.23671329 0.90353526 0.47817032]</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.01874019484844127</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.6490714767615496</v>
       </c>
     </row>
     <row r="36">
@@ -1804,13 +2018,19 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[-0.04095628  0.01353879 -0.00961274]</t>
+          <t>[-0.037953    0.01088388 -0.01711748]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[0.05377391 0.57188865 0.30912185]</t>
-        </is>
+          <t>[0.07176622 0.7509268  0.31604598]</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.01306973580615289</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.4443302795451649</v>
       </c>
     </row>
     <row r="37">
@@ -1844,13 +2064,19 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[0.02481531 0.08973366 0.05068339]</t>
+          <t>[0.02138275 0.07598825 0.05314268]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[0.68886195 2.42610436 1.40602234]</t>
-        </is>
+          <t>[0.59942428 2.06766064 1.44650003]</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0.03894475938752369</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.130192666589308</v>
       </c>
     </row>
     <row r="38">
@@ -1884,13 +2110,19 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[-0.01211623  0.03941273  0.0156209 ]</t>
+          <t>[-0.01460162  0.03719121  0.01579296]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[0.26334532 1.44534379 0.63418028]</t>
-        </is>
+          <t>[0.14210684 1.16773226 0.50139428]</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0.01559206625622982</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.5607397243416734</v>
       </c>
     </row>
     <row r="39">
@@ -1924,13 +2156,19 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[-0.0273142   0.01294044 -0.00851341]</t>
+          <t>[-0.03054951  0.01481139 -0.0094538 ]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[0.11304352 0.60587829 0.31139158]</t>
-        </is>
+          <t>[0.0834836  0.75742149 0.36478732]</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0.003552903535167937</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.4191440709826179</v>
       </c>
     </row>
     <row r="40">
@@ -1964,13 +2202,19 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[0.03609912 0.07692177 0.05997897]</t>
+          <t>[0.0379805  0.0792435  0.05995563]</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[1.05282845 2.18386749 1.70680659]</t>
-        </is>
+          <t>[1.16795714 2.36544979 1.80692295]</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0.06609030530003528</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.910005731279309</v>
       </c>
     </row>
     <row r="41">
@@ -2004,13 +2248,19 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[-0.01860081  0.02781542  0.00277942]</t>
+          <t>[-0.01765365  0.0260773   0.00484041]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[0.13674528 0.54588905 0.30505477]</t>
-        </is>
+          <t>[0.11295851 0.63308942 0.35205479]</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0010062841322327</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.4581731532815688</v>
       </c>
     </row>
     <row r="42">
@@ -2044,13 +2294,19 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[-0.03148085  0.0385374   0.01549472]</t>
+          <t>[-0.01734961  0.04364754  0.01976684]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[0.2069424  1.1870107  0.60393367]</t>
-        </is>
+          <t>[0.2114115  1.28662873 0.57422533]</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0.008520923253518808</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.4610652262270156</v>
       </c>
     </row>
     <row r="43">
@@ -2084,13 +2340,19 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[-0.02850802  0.0091125  -0.01247997]</t>
+          <t>[-0.032022    0.01005132 -0.01479994]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[0.10081221 0.7682752  0.43815783]</t>
-        </is>
+          <t>[0.08349935 0.77016465 0.4091643 ]</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.02107297226908885</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6945123576849893</v>
       </c>
     </row>
     <row r="44">
@@ -2124,13 +2386,19 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[0.0042605  0.05694369 0.03322912]</t>
+          <t>[0.01024687 0.06560455 0.03224365]</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>[0.41903076 1.69474023 1.00407723]</t>
-        </is>
+          <t>[0.43812473 1.72671674 0.98009796]</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0160399383018276</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6402461118553168</v>
       </c>
     </row>
     <row r="45">
@@ -2164,13 +2432,19 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[-0.04046439  0.0078697  -0.01412489]</t>
+          <t>[-0.0326957   0.01344777 -0.01163711]</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[0.18883997 0.79870328 0.37580293]</t>
-        </is>
+          <t>[0.11159927 0.77090425 0.3724081 ]</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.01635946191379515</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.582576571296237</v>
       </c>
     </row>
     <row r="46">
@@ -2204,13 +2478,19 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>[0.00685993 0.06372699 0.04195343]</t>
+          <t>[0.02010219 0.08079353 0.04627399]</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[0.27042208 1.87104357 1.17211811]</t>
-        </is>
+          <t>[0.5110349  2.15924686 1.20046219]</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0447784502840325</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.306973857846215</v>
       </c>
     </row>
     <row r="47">
@@ -2244,13 +2524,19 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[0.05511097 0.1136784  0.09221088]</t>
+          <t>[0.0527318  0.11697764 0.07797485]</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[1.71106959 2.94432864 2.61717419]</t>
-        </is>
+          <t>[1.73526373 2.81952362 2.36673983]</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0.08226663966079767</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2.341063992402707</v>
       </c>
     </row>
     <row r="48">
@@ -2284,13 +2570,19 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[-0.00642246  0.05279176  0.02083949]</t>
+          <t>[-0.01326739  0.04897825  0.01607394]</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[0.25399363 1.58037767 0.6216004 ]</t>
-        </is>
+          <t>[0.19767521 1.44202547 0.56225734]</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0.006416749046292192</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.3130425040857876</v>
       </c>
     </row>
     <row r="49">
@@ -2324,13 +2616,19 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>[0.07781688 0.12138759 0.10277475]</t>
+          <t>[0.07665479 0.13070618 0.10179546]</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[2.36804233 3.24003725 3.03375246]</t>
-        </is>
+          <t>[2.42526562 3.47101936 3.06300813]</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0.08763247384536613</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2.495345542920472</v>
       </c>
     </row>
     <row r="50">
@@ -2364,13 +2662,19 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[0.03529434 0.08249394 0.05458426]</t>
+          <t>[0.03210729 0.07640464 0.05738825]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[0.98179029 2.34966904 1.56491821]</t>
-        </is>
+          <t>[0.87428856 2.22269542 1.58287777]</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0.04401790521592773</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.302491697519942</v>
       </c>
     </row>
     <row r="51">
@@ -2404,13 +2708,19 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[0.00917442 0.06737338 0.03623072]</t>
+          <t>[0.01006408 0.06916056 0.03345107]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[0.33828905 1.95046263 1.04419763]</t>
-        </is>
+          <t>[0.28332554 1.87687817 0.94682179]</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.001645580655472509</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.2465649122155701</v>
       </c>
     </row>
     <row r="52">
@@ -2444,13 +2754,19 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[0.00076442 0.05051593 0.02833544]</t>
+          <t>[0.00245986 0.05085734 0.02798822]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>[0.33478486 1.46554936 0.83401266]</t>
-        </is>
+          <t>[0.39977886 1.53219141 0.88130768]</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0.01425021219059619</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.5821229759745769</v>
       </c>
     </row>
     <row r="53">
@@ -2484,13 +2800,19 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[-0.03005708  0.00932814 -0.01058498]</t>
+          <t>[-0.02999601  0.00665307 -0.0126243 ]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[0.26338256 0.73686585 0.48181102]</t>
-        </is>
+          <t>[0.21330831 0.7921135  0.51089653]</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.01932372502371776</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.7098045986669778</v>
       </c>
     </row>
   </sheetData>
